--- a/通用模板/成绩录入.xlsx
+++ b/通用模板/成绩录入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="1"/>
+    <workbookView windowWidth="21510" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">首条数据行号可以在此定义，不填默认为2</t>
+          <t xml:space="preserve">首条数据行号可以在此定义，不填默认为 3</t>
         </r>
       </text>
     </comment>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>项目</t>
   </si>
@@ -110,6 +110,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>尽量用代码操作，注意</t>
     </r>
     <r>
@@ -131,6 +136,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>特别要注意那些非正常的分得，</t>
     </r>
     <r>
@@ -149,17 +159,34 @@
   <si>
     <t>例：不满1圈；用时不满1分钟的</t>
   </si>
+  <si>
+    <t>四、</t>
+  </si>
+  <si>
+    <t>设置导入成绩的格式等</t>
+  </si>
+  <si>
+    <t>打在成绩字段名所在单元格的批注里，一行一条命令</t>
+  </si>
+  <si>
+    <t>支持的命令：</t>
+  </si>
+  <si>
+    <t>保留格式</t>
+  </si>
+  <si>
+    <t>例：</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -227,7 +254,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -242,13 +337,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -257,7 +345,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,60 +362,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -333,9 +375,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -343,35 +399,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -402,6 +429,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,13 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,157 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,32 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -698,21 +699,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,6 +727,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -749,6 +765,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -757,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,153 +796,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -954,11 +975,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1282,10 +1306,10 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1298,60 +1322,60 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
   <legacyDrawing r:id="rId2"/>
@@ -1361,10 +1385,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:C16"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1377,108 +1401,139 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="20.25" spans="1:3">
       <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="20.25" spans="1:3">
       <c r="A6" s="1"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="22.5" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" ht="20.25" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="20.25" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="20.25" spans="1:2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" ht="20.25" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" ht="20.25" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="20.25" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4"/>
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/通用模板/成绩录入.xlsx
+++ b/通用模板/成绩录入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10530"/>
+    <workbookView windowWidth="21510" windowHeight="10530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,29 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="C20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">保留格式</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
@@ -183,12 +206,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -213,6 +236,20 @@
     </font>
     <font>
       <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -234,7 +271,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -242,19 +284,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,93 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -375,6 +343,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -382,8 +388,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -392,13 +429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -429,6 +459,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,175 +621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +742,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -727,17 +772,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,15 +798,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -784,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,16 +826,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,119 +844,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,7 +972,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -951,16 +987,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -969,16 +1002,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1306,10 +1339,10 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:G3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1322,57 +1355,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9">
         <v>1</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="9">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
@@ -1387,14 +1420,15 @@
   <sheetPr/>
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="20.25" spans="1:2">
@@ -1407,7 +1441,7 @@
     </row>
     <row r="3" ht="20.25" spans="1:3">
       <c r="A3" s="1"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1416,7 +1450,7 @@
     </row>
     <row r="4" ht="20.25" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1425,7 +1459,7 @@
     </row>
     <row r="5" ht="20.25" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1434,7 +1468,7 @@
     </row>
     <row r="6" ht="20.25" spans="1:3">
       <c r="A6" s="1"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1456,7 +1490,7 @@
     </row>
     <row r="9" ht="20.25" spans="1:3">
       <c r="A9" s="3"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1465,7 +1499,7 @@
     </row>
     <row r="10" ht="20.25" spans="1:2">
       <c r="A10" s="3"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1482,7 +1516,7 @@
     </row>
     <row r="13" ht="20.25" spans="1:3">
       <c r="A13" s="3"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1502,7 +1536,7 @@
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1528,12 +1562,13 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/通用模板/成绩录入.xlsx
+++ b/通用模板/成绩录入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10530" activeTab="1"/>
+    <workbookView windowWidth="20400" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>项目</t>
   </si>
@@ -198,6 +198,9 @@
     <t>保留格式</t>
   </si>
   <si>
+    <t>如:显示两位小数等</t>
+  </si>
+  <si>
     <t>例：</t>
   </si>
 </sst>
@@ -284,7 +287,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -305,8 +316,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -329,7 +379,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -352,7 +402,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -360,28 +417,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -390,38 +425,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -459,187 +462,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,11 +712,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,24 +768,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,32 +809,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -814,10 +817,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,133 +829,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,10 +1342,10 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1418,13 +1421,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="4.75" customWidth="1"/>
@@ -1550,17 +1553,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:4">
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
